--- a/database.xlsx
+++ b/database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,60 +446,113 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Idade</t>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CPF</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>RG</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Endereço da obra</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Endereço Residencial</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Observação</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>44</v>
+          <t>Maria Chaves e Brito</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>(77)99105-4819</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>595.112.145-00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>05.702.498-72 SSP/BA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Rua Liberdade, S/N - Bairro Centro - Condeúba</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Rua Liberdade, nº 100  - Bairro Centro - Condeúba</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Maria de Detino</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Neres</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ruth</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Davi</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
+          <t>Alexandro Alves Pereira</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>77991395904</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29457318862</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0804558329</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Rua São Lucas, 323 - Bairro São Vicente - Condeúba-BA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Rua São Lucas, 323 - Bairro São Vicente - Condeúba-BA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>próximo ao mercado Teixeira</t>
+        </is>
       </c>
     </row>
   </sheetData>
